--- a/TestStatusReport_project.xlsx
+++ b/TestStatusReport_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius C\Desktop\proiect final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AD373C-298E-4D12-9E5B-268FE277D3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523FCA-68F4-496C-AAF0-17F2827EF2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
 click on details </t>
   </si>
   <si>
-    <t>it should show details about  the product</t>
-  </si>
-  <si>
     <t>Test 10 - Testare buton 'back to all products'</t>
   </si>
   <si>
@@ -357,10 +354,6 @@
 go to cart
 click on "checkout"
 enter valid credential </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the page should show an error 
-</t>
   </si>
   <si>
     <t>Test 20 - Testare buton "Continue" din pagina de checkout</t>
@@ -377,10 +370,6 @@
 click on "continue"</t>
   </si>
   <si>
-    <t xml:space="preserve">the page should redirect to main page 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test 21 - Testare buton "Cancel" din pagina de checkout </t>
   </si>
   <si>
@@ -407,21 +396,6 @@
 click on "checkout"
 enter complete and valid credential
 click on "finish"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the order should be placed and confirmed
-</t>
-  </si>
-  <si>
-    <t>the page should show the products in cart and valid credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the order should be cancelled, the page should redirect to "cart" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the page should be redirect to "finish" order  
-</t>
   </si>
   <si>
     <t xml:space="preserve">Cosul de cumparaturi </t>
@@ -523,6 +497,32 @@
 enter complete and valid credential
 click on "finish"
 click on "back to home"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the page should be redirect to "checkout overview"  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the page should redirect to "list of products" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the page should comfirm the order is been placed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the page should redirect to back to all products 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the page should show an error "Error: First Name is required" 
+</t>
+  </si>
+  <si>
+    <t>it should show a new "form"with details about  the product</t>
+  </si>
+  <si>
+    <t>the page should redirect to the form "checkout"</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -852,6 +852,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,19 +876,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,13 +1159,13 @@
   </sheetPr>
   <dimension ref="A1:I956"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" customWidth="1"/>
     <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" customWidth="1"/>
     <col min="4" max="4" width="26.90625" customWidth="1"/>
@@ -1209,7 +1206,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -1230,7 +1227,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="34" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1246,7 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="34" t="s">
         <v>24</v>
       </c>
@@ -1268,7 +1265,7 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="34" t="s">
         <v>26</v>
       </c>
@@ -1287,7 +1284,7 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="33" t="s">
         <v>30</v>
       </c>
@@ -1306,7 +1303,7 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
@@ -1325,7 +1322,7 @@
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="26" t="s">
         <v>35</v>
       </c>
@@ -1344,7 +1341,7 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -1365,7 +1362,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="28" t="s">
         <v>41</v>
       </c>
@@ -1377,170 +1374,170 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="36" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="6"/>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="6"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="44" t="s">
-        <v>56</v>
+      <c r="F14" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="79" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="44" t="s">
-        <v>60</v>
+      <c r="F15" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="38" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="44" t="s">
-        <v>63</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="38" t="s">
         <v>65</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="44" t="s">
-        <v>66</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="38" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="44" t="s">
-        <v>69</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>70</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>71</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="44" t="s">
-        <v>84</v>
+      <c r="F19" s="38" t="s">
+        <v>105</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1549,15 +1546,15 @@
     <row r="20" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="44" t="s">
-        <v>75</v>
+      <c r="F20" s="38" t="s">
+        <v>103</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -1566,15 +1563,15 @@
     <row r="21" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="44" t="s">
-        <v>86</v>
+      <c r="F21" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1583,15 +1580,15 @@
     <row r="22" spans="1:9" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="44" t="s">
-        <v>85</v>
+      <c r="F22" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1600,34 +1597,34 @@
     <row r="23" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
       <c r="B23" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="44" t="s">
-        <v>83</v>
+      <c r="F23" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>87</v>
+      <c r="A24" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="29" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="44" t="s">
-        <v>90</v>
+      <c r="F24" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1636,15 +1633,15 @@
     <row r="25" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="29" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="44" t="s">
-        <v>93</v>
+      <c r="F25" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -1653,15 +1650,15 @@
     <row r="26" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="37" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="29" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="44" t="s">
-        <v>96</v>
+      <c r="F26" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1670,15 +1667,15 @@
     <row r="27" spans="1:9" ht="94" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="44" t="s">
-        <v>99</v>
+      <c r="F27" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -1687,34 +1684,34 @@
     <row r="28" spans="1:9" ht="92" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="37" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="29" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="44" t="s">
-        <v>102</v>
+      <c r="F28" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>103</v>
+      <c r="A29" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="29" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="44" t="s">
-        <v>78</v>
+      <c r="F29" s="38" t="s">
+        <v>102</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>

--- a/TestStatusReport_project.xlsx
+++ b/TestStatusReport_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius C\Desktop\proiect final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72523FCA-68F4-496C-AAF0-17F2827EF2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE73FB2D-13BB-4F81-AFFD-3C1B31579A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>Priority</t>
   </si>
@@ -117,19 +117,6 @@
 click on login </t>
   </si>
   <si>
-    <t>Test 3 - User name incorect si parola corecta buton login</t>
-  </si>
-  <si>
-    <t>deschide browserul
-go to login page
-introdu username incorect  
-introdu parola corecta
-click on login</t>
-  </si>
-  <si>
-    <t>Test 4 - User name camp gol si parola corecta +buton login</t>
-  </si>
-  <si>
     <t>deschide browserul
 go to login page
 username camp gol  
@@ -145,19 +132,6 @@
 Epic sadface: Username is required</t>
   </si>
   <si>
-    <t>Test 5 - User name camp gol si parola incorecta + buton login</t>
-  </si>
-  <si>
-    <t>deschide browserul
-go to login page
-username camp gol  
-introdu parola incorecta
-click on login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 6 - User name corect si parola camp gol + buton login </t>
-  </si>
-  <si>
     <t>deschide browserul
 go to login page
 username corect 
@@ -170,29 +144,13 @@
 </t>
   </si>
   <si>
-    <t>Test 7 - User name incorect si parola camp gol + buton login</t>
-  </si>
-  <si>
-    <t>deschide browserul
-go to login page
-username incorect 
-parola camp gol
-click on login</t>
-  </si>
-  <si>
     <t>Pagina de produs</t>
   </si>
   <si>
-    <t>Test 8 - Verificarea lista produse</t>
-  </si>
-  <si>
     <t>p2</t>
   </si>
   <si>
     <t>the page should show a list with all 6 products</t>
-  </si>
-  <si>
-    <t>Test 9 - Testare detalii in produs individual</t>
   </si>
   <si>
     <t>deschide browserul
@@ -209,9 +167,6 @@
 go to main page
 click on products
 click on details </t>
-  </si>
-  <si>
-    <t>Test 10 - Testare buton 'back to all products'</t>
   </si>
   <si>
     <t>deschide browserul
@@ -225,9 +180,6 @@
     <t>the page should redirect to back to all products</t>
   </si>
   <si>
-    <t>Test 11 - Testare buton de sortare de la A la Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">deschide browserul
 login with valid credentials
 go to main page
@@ -239,9 +191,6 @@
     <t>the products should be sorted by alphabetical order from A to Z</t>
   </si>
   <si>
-    <t>Test 12 - Testare buton de sortare de la Z la A</t>
-  </si>
-  <si>
     <t xml:space="preserve">deschide browserul
 login with valid credentials
 go to main page
@@ -253,13 +202,7 @@
     <t>the products should be sorted by alphabetical order from Z to A</t>
   </si>
   <si>
-    <t>Test 13 - Testare buton de sortare dupa pret crescator</t>
-  </si>
-  <si>
     <t>the products should be sorted by ascending price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 14 - Testare buton de sortare dupa pret descrescator </t>
   </si>
   <si>
     <t xml:space="preserve">deschide browserul
@@ -282,9 +225,6 @@
 </t>
   </si>
   <si>
-    <t>Test 15 - Testare buton "add to cart" cu un singur produs</t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -294,9 +234,6 @@
   <si>
     <t xml:space="preserve">one product should be added to cart 
 </t>
-  </si>
-  <si>
-    <t>Test 16 - Testare buton "add to cart" cu 6 produse (toate)</t>
   </si>
   <si>
     <t>deschide browserul
@@ -309,9 +246,6 @@
   <si>
     <t xml:space="preserve">6 products should be added to cart
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 17 - Testare buton "remove from cart" din main list </t>
   </si>
   <si>
     <t xml:space="preserve">deschide browserul
@@ -328,12 +262,6 @@
   </si>
   <si>
     <t>Interfata checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 18 - Testare "Checkout" cu date corecte client </t>
-  </si>
-  <si>
-    <t>Test 19 - Testare "Checkout " cu date incomplete client</t>
   </si>
   <si>
     <t>deschide browserul
@@ -354,9 +282,6 @@
 go to cart
 click on "checkout"
 enter valid credential </t>
-  </si>
-  <si>
-    <t>Test 20 - Testare buton "Continue" din pagina de checkout</t>
   </si>
   <si>
     <t>deschide browserul
@@ -370,9 +295,6 @@
 click on "continue"</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 21 - Testare buton "Cancel" din pagina de checkout </t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -384,9 +306,6 @@
 click on "cancel"</t>
   </si>
   <si>
-    <t>Test 22 - Testare buton "Finish" din pagina de checkout</t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -401,9 +320,6 @@
     <t xml:space="preserve">Cosul de cumparaturi </t>
   </si>
   <si>
-    <t xml:space="preserve">Test 23 - Testare buton "remove" from cart </t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -417,9 +333,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Test 24 - Testare buton "continue shopping" </t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -433,9 +346,6 @@
 </t>
   </si>
   <si>
-    <t>Test 25 - Testare buton "checkout"</t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -449,9 +359,6 @@
 </t>
   </si>
   <si>
-    <t>Test 26 - Testare buton "add more"</t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -465,9 +372,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Test 27 - Testare detalii produse din cosul de cumparaturi </t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -482,9 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">Finalizare comanda </t>
-  </si>
-  <si>
-    <t>Test 28 - Testare buton "back to home"</t>
   </si>
   <si>
     <t>deschide browserul
@@ -524,12 +425,118 @@
   <si>
     <t>the page should redirect to the form "checkout"</t>
   </si>
+  <si>
+    <t>Test 3 - User name camp gol si parola corecta +buton login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 4 - User name corect si parola camp gol + buton login </t>
+  </si>
+  <si>
+    <t>Test 5 - Verificarea lista produse</t>
+  </si>
+  <si>
+    <t>Test 6 - Testare detalii in produs individual</t>
+  </si>
+  <si>
+    <t>Test 7 - Testare buton 'back to all products'</t>
+  </si>
+  <si>
+    <t>Test 8 - Testare buton de sortare de la A la Z</t>
+  </si>
+  <si>
+    <t>Test 9 - Testare buton de sortare de la Z la A</t>
+  </si>
+  <si>
+    <t>Test 10 - Testare buton de sortare dupa pret crescator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 11 - Testare buton de sortare dupa pret descrescator </t>
+  </si>
+  <si>
+    <t>Test 12 - Testare buton "add to cart" cu un singur produs</t>
+  </si>
+  <si>
+    <t>Test 13 - Testare buton "add to cart" cu 6 produse (toate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 14 - Testare buton "remove from cart" din main list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 15 - Testare "Checkout" cu date corecte client </t>
+  </si>
+  <si>
+    <t>Test 16 - Testare "Checkout " cu date incomplete client</t>
+  </si>
+  <si>
+    <t>Test 17 - Testare buton "Continue" din pagina de checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 18 - Testare buton "Cancel" din pagina de checkout </t>
+  </si>
+  <si>
+    <t>Test 19 - Testare buton "Finish" din pagina de checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 20 - Testare buton "remove" from cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 21 - Testare buton "continue shopping" </t>
+  </si>
+  <si>
+    <t>Test 22 - Testare buton "checkout"</t>
+  </si>
+  <si>
+    <t>Test 23 - Testare buton "add more"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 24 - Testare detalii produse din cosul de cumparaturi </t>
+  </si>
+  <si>
+    <t>Test 25 - Testare buton "back to home"</t>
+  </si>
+  <si>
+    <t>Test 26 - Testare buton "logout" din main page</t>
+  </si>
+  <si>
+    <t>deschide browserul
+login with valid credentials
+go to main page
+click on "meniu"
+click on "logout"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the page should redirect to login page
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 27 - check if the products added to cart are saved if you logout and login again </t>
+  </si>
+  <si>
+    <t>deschide browserul
+login with valid credentials
+go to main page
+click on products
+click "add to cart"
+click "back main page"
+click on "meniu"
+click "logout"
+login with valid credentials
+go to maijn page
+click on "cart"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the products should still be in the cart
+</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -597,11 +604,6 @@
     <font>
       <sz val="14"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -741,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -801,73 +803,64 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,11 +869,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,10 +1153,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I956"/>
+  <dimension ref="A1:I953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1206,10 +1202,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1218,7 +1214,7 @@
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="32"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1227,8 +1223,8 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1239,505 +1235,477 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="34" t="s">
-        <v>24</v>
+    <row r="4" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
+      <c r="B4" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
+      <c r="D4" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
+      <c r="B5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="41"/>
-      <c r="B5" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="41"/>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
-      <c r="B7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42"/>
-      <c r="B8" s="26" t="s">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="41"/>
+      <c r="B8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="6"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:9" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="79" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>52</v>
+    <row r="13" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="36" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>58</v>
+      <c r="A14" s="41"/>
+      <c r="B14" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="38" t="s">
-        <v>55</v>
+      <c r="F14" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="79" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="37" t="s">
-        <v>56</v>
+    <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="29" t="s">
-        <v>57</v>
+      <c r="D15" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="38" t="s">
-        <v>59</v>
+      <c r="F15" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="37" t="s">
-        <v>60</v>
+    <row r="16" spans="1:9" ht="106" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="29" t="s">
-        <v>61</v>
+      <c r="D16" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="38" t="s">
-        <v>62</v>
+      <c r="F16" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="37" t="s">
-        <v>63</v>
+    <row r="17" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="29" t="s">
-        <v>64</v>
+      <c r="D17" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="38" t="s">
-        <v>65</v>
+      <c r="F17" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37" t="s">
-        <v>66</v>
+    <row r="18" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="29" t="s">
-        <v>67</v>
+      <c r="D18" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="38" t="s">
-        <v>68</v>
+      <c r="F18" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>70</v>
+    <row r="19" spans="1:9" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="29" t="s">
-        <v>73</v>
+      <c r="D19" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="38" t="s">
-        <v>105</v>
+      <c r="F19" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="37" t="s">
-        <v>71</v>
+    <row r="20" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="36" t="s">
         <v>72</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="38" t="s">
-        <v>103</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="37" t="s">
-        <v>74</v>
+    <row r="21" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="29" t="s">
-        <v>75</v>
+      <c r="D21" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="38" t="s">
-        <v>99</v>
+      <c r="F21" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="37" t="s">
-        <v>76</v>
+    <row r="22" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="29" t="s">
-        <v>77</v>
+      <c r="D22" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="38" t="s">
-        <v>100</v>
+      <c r="F22" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="37" t="s">
-        <v>78</v>
+    <row r="23" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="29" t="s">
-        <v>79</v>
+      <c r="D23" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="38" t="s">
-        <v>101</v>
+      <c r="F23" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>81</v>
+    <row r="24" spans="1:9" ht="94" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="29" t="s">
-        <v>82</v>
+      <c r="D24" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="38" t="s">
-        <v>83</v>
+      <c r="F24" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="37" t="s">
-        <v>84</v>
+    <row r="25" spans="1:9" ht="92" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="29" t="s">
-        <v>85</v>
+      <c r="D25" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="38" t="s">
-        <v>86</v>
+      <c r="F25" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="37" t="s">
-        <v>87</v>
+    <row r="26" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>99</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="29" t="s">
-        <v>88</v>
+      <c r="D26" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="38" t="s">
-        <v>89</v>
+      <c r="F26" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="37" t="s">
-        <v>90</v>
+    <row r="27" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="29" t="s">
-        <v>91</v>
+      <c r="D27" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="38" t="s">
-        <v>92</v>
+      <c r="F27" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="37" t="s">
-        <v>93</v>
+    <row r="28" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="29" t="s">
-        <v>94</v>
+      <c r="D28" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="38" t="s">
-        <v>95</v>
+      <c r="F28" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="12"/>
+    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
@@ -6349,29 +6317,15 @@
       <c r="D953" s="14"/>
       <c r="I953" s="15"/>
     </row>
-    <row r="954" spans="2:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B954" s="13"/>
-      <c r="D954" s="14"/>
-      <c r="I954" s="15"/>
-    </row>
-    <row r="955" spans="2:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B955" s="13"/>
-      <c r="D955" s="14"/>
-      <c r="I955" s="15"/>
-    </row>
-    <row r="956" spans="2:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B956" s="13"/>
-      <c r="D956" s="14"/>
-      <c r="I956" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:H31">
+  <conditionalFormatting sqref="H2:H28">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -6442,19 +6396,19 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17">
-        <f>COUNTIF(TestCases!B2:B6,"*")</f>
-        <v>5</v>
+        <f>COUNTIF(TestCases!B2:B4,"*")</f>
+        <v>3</v>
       </c>
       <c r="B2" s="17">
-        <f>COUNTIF(TestCases!H2:H6,"Pass")</f>
+        <f>COUNTIF(TestCases!H2:H4,"Pass")</f>
         <v>0</v>
       </c>
       <c r="C2" s="17">
-        <f>COUNTIF(TestCases!H2:H6,"Fail")</f>
+        <f>COUNTIF(TestCases!H2:H4,"Fail")</f>
         <v>0</v>
       </c>
       <c r="D2" s="17">
-        <f>COUNTIF(TestCases!H2:H6,"Blocked")</f>
+        <f>COUNTIF(TestCases!H2:H4,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="E2" s="17">

--- a/TestStatusReport_project.xlsx
+++ b/TestStatusReport_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius C\Desktop\proiect final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE73FB2D-13BB-4F81-AFFD-3C1B31579A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CAA74E-B67E-4DCF-9BD9-4C912FA6F9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>Priority</t>
   </si>
@@ -356,19 +356,6 @@
   </si>
   <si>
     <t xml:space="preserve">the page should redirect to checkout page
-</t>
-  </si>
-  <si>
-    <t>deschide browserul
-login with valid credentials
-go to main page
-click on products
-click "add to cart"
-go to cart
-click on "add more"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the page should add one or more product in the cart
 </t>
   </si>
   <si>
@@ -486,18 +473,6 @@
     <t>Test 22 - Testare buton "checkout"</t>
   </si>
   <si>
-    <t>Test 23 - Testare buton "add more"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 24 - Testare detalii produse din cosul de cumparaturi </t>
-  </si>
-  <si>
-    <t>Test 25 - Testare buton "back to home"</t>
-  </si>
-  <si>
-    <t>Test 26 - Testare buton "logout" din main page</t>
-  </si>
-  <si>
     <t>deschide browserul
 login with valid credentials
 go to main page
@@ -507,9 +482,6 @@
   <si>
     <t xml:space="preserve">the page should redirect to login page
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 27 - check if the products added to cart are saved if you logout and login again </t>
   </si>
   <si>
     <t>deschide browserul
@@ -530,6 +502,18 @@
   </si>
   <si>
     <t>LOGOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 23 - Testare detalii produse din cosul de cumparaturi </t>
+  </si>
+  <si>
+    <t>Test 24 - Testare buton "back to home"</t>
+  </si>
+  <si>
+    <t>Test 25 - Testare buton "logout" din main page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 26 - check if the products added to cart are saved if you logout and login again </t>
   </si>
 </sst>
 </file>
@@ -548,38 +532,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,6 +578,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,6 +846,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,9 +869,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,10 +1145,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I953"/>
+  <dimension ref="A1:I952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1194,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -1223,7 +1215,7 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="32" t="s">
         <v>22</v>
       </c>
@@ -1242,9 +1234,9 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -1261,9 +1253,9 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>19</v>
@@ -1280,11 +1272,11 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>30</v>
@@ -1301,9 +1293,9 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>33</v>
@@ -1313,16 +1305,16 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>30</v>
@@ -1339,9 +1331,9 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="81.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>30</v>
@@ -1358,9 +1350,9 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>30</v>
@@ -1377,9 +1369,9 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>30</v>
@@ -1396,9 +1388,9 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="79" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="27" t="s">
@@ -1413,9 +1405,9 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="27" t="s">
@@ -1430,9 +1422,9 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="27" t="s">
@@ -1447,9 +1439,9 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="27" t="s">
@@ -1464,11 +1456,11 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="106" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="27" t="s">
@@ -1476,16 +1468,16 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="27" t="s">
@@ -1493,16 +1485,16 @@
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="27" t="s">
@@ -1510,16 +1502,16 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="27" t="s">
@@ -1527,16 +1519,16 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="27" t="s">
@@ -1544,18 +1536,18 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" ht="95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="27" t="s">
@@ -1570,9 +1562,9 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="86.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="27" t="s">
@@ -1587,9 +1579,9 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="27" t="s">
@@ -1603,10 +1595,10 @@
       <c r="H23" s="9"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="35" t="s">
-        <v>97</v>
+    <row r="24" spans="1:9" ht="92" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="27" t="s">
@@ -1620,77 +1612,65 @@
       <c r="H24" s="9"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="35" t="s">
-        <v>98</v>
+    <row r="25" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
         <v>99</v>
       </c>
+      <c r="B26" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="27" t="s">
-        <v>69</v>
+      <c r="D26" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="36" t="s">
-        <v>73</v>
+      <c r="F26" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>106</v>
-      </c>
+    <row r="27" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
       <c r="B27" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="45" t="s">
-        <v>102</v>
+      <c r="F27" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="148" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12"/>
+    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
@@ -6311,21 +6291,16 @@
       <c r="B952" s="13"/>
       <c r="D952" s="14"/>
       <c r="I952" s="15"/>
-    </row>
-    <row r="953" spans="2:9" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B953" s="13"/>
-      <c r="D953" s="14"/>
-      <c r="I953" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A15"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:H28">
+  <conditionalFormatting sqref="H2:H27">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
@@ -6394,7 +6369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="17">
         <f>COUNTIF(TestCases!B2:B4,"*")</f>
         <v>3</v>
